--- a/create-data/create_reference_data/source/footnote_types.xlsx
+++ b/create-data/create_reference_data/source/footnote_types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tariff\create-data\create_reference_data\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B0AB96-90BE-463C-82A2-61BCECAAAE67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB866D-43BC-47D4-BA72-59C3E5BF8148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9555" xr2:uid="{B724F9FD-527C-4A95-969C-B8CCC70DC96A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9555" activeTab="1" xr2:uid="{B724F9FD-527C-4A95-969C-B8CCC70DC96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +117,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,11 +155,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -152,21 +188,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -486,7 +535,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -500,16 +549,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -524,87 +573,87 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="14">
         <v>25569</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="15" t="str">
         <f>VLOOKUP(C2, application_codes, 2, FALSE)</f>
         <v>TARIC nomenclature</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="13">
         <v>7</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>25569</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="15" t="str">
         <f>VLOOKUP(C3, application_codes, 2, FALSE)</f>
         <v>Other measures</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="13">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>25569</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="15" t="str">
         <f>VLOOKUP(C4, application_codes, 2, FALSE)</f>
         <v>Other measures</v>
       </c>

--- a/create-data/create_reference_data/source/footnote_types.xlsx
+++ b/create-data/create_reference_data/source/footnote_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tariff\create-data\create_reference_data\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.admin/projects/tariffs/create-data/create_reference_data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB866D-43BC-47D4-BA72-59C3E5BF8148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017448FB-E2C0-8D42-9AE4-C5009ABEA1B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9555" activeTab="1" xr2:uid="{B724F9FD-527C-4A95-969C-B8CCC70DC96A}"/>
+    <workbookView xWindow="4060" yWindow="6020" windowWidth="19340" windowHeight="9560" xr2:uid="{B724F9FD-527C-4A95-969C-B8CCC70DC96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -174,16 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -533,33 +531,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5B35DA-628F-40A1-97BB-3E7F8D8C3603}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -573,87 +564,87 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>25569</v>
       </c>
-      <c r="E2" s="15" t="str">
+      <c r="E2" s="14" t="str">
         <f>VLOOKUP(C2, application_codes, 2, FALSE)</f>
         <v>TARIC nomenclature</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>7</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>25569</v>
       </c>
-      <c r="E3" s="15" t="str">
+      <c r="E3" s="14" t="str">
         <f>VLOOKUP(C3, application_codes, 2, FALSE)</f>
         <v>Other measures</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>7</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>25569</v>
       </c>
-      <c r="E4" s="15" t="str">
+      <c r="E4" s="14" t="str">
         <f>VLOOKUP(C4, application_codes, 2, FALSE)</f>
         <v>Other measures</v>
       </c>
@@ -672,74 +663,74 @@
       <selection activeCell="B9" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" t="s">
